--- a/Exc2/Проверочный лист для аудита ИБ-PropDevelopment.xlsx
+++ b/Exc2/Проверочный лист для аудита ИБ-PropDevelopment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Y-practicum\architecture-sprint-7\Exc2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\git-local-repo\github.com\grm000\architecture-sprint-7\Exc2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B3F2C9-FDFA-4E86-ABE4-924502DBCB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4EE0FF-67AB-4200-9AEC-0AF4D1055E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="34776" windowHeight="21096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="82">
   <si>
     <t>№</t>
   </si>
@@ -242,13 +242,37 @@
   </si>
   <si>
     <t>Компания намерена провести аудит безопасности</t>
+  </si>
+  <si>
+    <t>Резервное копирование позволяет восстановить утерянные данные при сбоях. Хранение резервных копий в защищенных хранилищах позволяет минимизировать риск утечки чувствительных данных.</t>
+  </si>
+  <si>
+    <t>Обоснование</t>
+  </si>
+  <si>
+    <t>Аудит позволит проверить, выполняет ли компания требования законодательства РФ, и предотвратить возможные штрафы</t>
+  </si>
+  <si>
+    <t>Для отсечения нежелательной сетевой активности.</t>
+  </si>
+  <si>
+    <t>Настроены межсетевые экраны для клиентов и собственников. Доступ к данным осуществляется только после авторизации.</t>
+  </si>
+  <si>
+    <t>Для организации авторизованного доступа к данным используем системы аутентификации. Исходя из профиля нагрузки для авторизации внутренних пользователей используем AD, для авторизации клиентов и собственников используем Keycloack</t>
+  </si>
+  <si>
+    <t>Наличие замкнутого контура для обработки чувствительных данных минимизирует риск утечек информации.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимизация доступа к системам из внешних источников повышает уровень безопасности данных в целом. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -270,8 +294,15 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +327,14 @@
         <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -372,11 +409,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,35 +468,52 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F63"/>
+  <dimension ref="B3:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61:F63"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="13.2"/>
@@ -661,9 +755,10 @@
     <col min="4" max="4" width="59.5546875" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="42.88671875" customWidth="1"/>
+    <col min="7" max="7" width="44.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" ht="27" customHeight="1">
+    <row r="3" spans="3:7" ht="27" customHeight="1">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,16 +771,20 @@
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="3:6" ht="30.75" customHeight="1">
-      <c r="C4" s="6" t="s">
+      <c r="G3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" ht="30.75" customHeight="1">
+      <c r="C4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="3:6" ht="83.4" customHeight="1">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="3:7" ht="83.4" customHeight="1">
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -698,8 +797,9 @@
       <c r="F5" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" ht="61.5" customHeight="1">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="3:7" ht="61.5" customHeight="1">
       <c r="C6" s="2">
         <v>2</v>
       </c>
@@ -712,8 +812,9 @@
       <c r="F6" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" ht="80.25" customHeight="1">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="3:7" ht="80.25" customHeight="1">
       <c r="C7" s="2">
         <v>3</v>
       </c>
@@ -726,8 +827,9 @@
       <c r="F7" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" ht="77.25" customHeight="1">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="3:7" ht="77.25" customHeight="1">
       <c r="C8" s="2">
         <v>4</v>
       </c>
@@ -740,8 +842,9 @@
       <c r="F8" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" ht="87.75" customHeight="1">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="3:7" ht="87.75" customHeight="1">
       <c r="C9" s="2">
         <v>5</v>
       </c>
@@ -754,8 +857,9 @@
       <c r="F9" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="3:6" ht="69" customHeight="1">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="3:7" ht="69" customHeight="1">
       <c r="C10" s="2">
         <v>6</v>
       </c>
@@ -768,8 +872,9 @@
       <c r="F10" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" ht="82.5" customHeight="1">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="3:7" ht="82.5" customHeight="1">
       <c r="C11" s="2">
         <v>7</v>
       </c>
@@ -782,8 +887,9 @@
       <c r="F11" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="3:6" ht="62.25" customHeight="1">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="3:7" ht="79.2">
       <c r="C12" s="2">
         <v>8</v>
       </c>
@@ -793,11 +899,14 @@
       <c r="E12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="3:6" ht="55.5" customHeight="1">
+      <c r="G12" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="55.5" customHeight="1">
       <c r="C13" s="2">
         <v>9</v>
       </c>
@@ -807,11 +916,14 @@
       <c r="E13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="3:6" ht="62.4" customHeight="1">
+      <c r="G13" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" ht="62.4" customHeight="1">
       <c r="C14" s="2">
         <v>10</v>
       </c>
@@ -821,11 +933,14 @@
       <c r="E14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" ht="62.4" customHeight="1">
+      <c r="F14" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" ht="62.4" customHeight="1">
       <c r="C15" s="2">
         <v>11</v>
       </c>
@@ -835,11 +950,12 @@
       <c r="E15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="3:6" ht="68.25" customHeight="1">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="3:7" ht="68.25" customHeight="1">
       <c r="C16" s="2">
         <v>12</v>
       </c>
@@ -849,11 +965,12 @@
       <c r="E16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" ht="52.8" customHeight="1">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="3:7" ht="52.8" customHeight="1">
       <c r="C17" s="2">
         <v>13</v>
       </c>
@@ -866,8 +983,9 @@
       <c r="F17" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" ht="60.75" customHeight="1">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="3:7" ht="60.75" customHeight="1">
       <c r="C18" s="2">
         <v>14</v>
       </c>
@@ -880,16 +998,18 @@
       <c r="F18" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" ht="36.75" customHeight="1">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="3:7" ht="36.75" customHeight="1">
       <c r="C19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="3:6" ht="75.75" customHeight="1">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="3:7" ht="75.75" customHeight="1">
       <c r="C20" s="2">
         <v>1</v>
       </c>
@@ -902,8 +1022,9 @@
       <c r="F20" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" ht="63.75" customHeight="1">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="3:7" ht="63.75" customHeight="1">
       <c r="C21" s="2">
         <v>2</v>
       </c>
@@ -916,8 +1037,9 @@
       <c r="F21" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" ht="54" customHeight="1">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="3:7" ht="54" customHeight="1">
       <c r="C22" s="2">
         <v>3</v>
       </c>
@@ -930,8 +1052,9 @@
       <c r="F22" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" ht="82.5" customHeight="1">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="3:7" ht="82.5" customHeight="1">
       <c r="C23" s="2">
         <v>4</v>
       </c>
@@ -941,11 +1064,14 @@
       <c r="E23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" ht="64.5" customHeight="1">
+      <c r="G23" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="64.5" customHeight="1">
       <c r="C24" s="2">
         <v>5</v>
       </c>
@@ -958,8 +1084,9 @@
       <c r="F24" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="3:6" ht="56.25" customHeight="1">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="3:7" ht="56.25" customHeight="1">
       <c r="C25" s="2">
         <v>6</v>
       </c>
@@ -972,8 +1099,9 @@
       <c r="F25" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" ht="125.25" customHeight="1">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="3:7" ht="125.25" customHeight="1">
       <c r="C26" s="2">
         <v>7</v>
       </c>
@@ -986,8 +1114,9 @@
       <c r="F26" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" ht="90" customHeight="1">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="3:7" ht="90" customHeight="1">
       <c r="C27" s="2">
         <v>8</v>
       </c>
@@ -1000,8 +1129,9 @@
       <c r="F27" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="3:6" ht="55.5" customHeight="1">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="3:7" ht="55.5" customHeight="1">
       <c r="C28" s="2">
         <v>9</v>
       </c>
@@ -1014,8 +1144,9 @@
       <c r="F28" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="3:6" ht="51.75" customHeight="1">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="3:7" ht="51.75" customHeight="1">
       <c r="C29" s="2">
         <v>10</v>
       </c>
@@ -1028,8 +1159,9 @@
       <c r="F29" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" ht="53.25" customHeight="1">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="3:7" ht="53.25" customHeight="1">
       <c r="C30" s="2">
         <v>11</v>
       </c>
@@ -1042,8 +1174,9 @@
       <c r="F30" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="3:6" ht="52.5" customHeight="1">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="3:7" ht="52.5" customHeight="1">
       <c r="C31" s="2">
         <v>12</v>
       </c>
@@ -1056,8 +1189,9 @@
       <c r="F31" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="3:6" ht="51" customHeight="1">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="3:7" ht="51" customHeight="1">
       <c r="C32" s="2">
         <v>13</v>
       </c>
@@ -1070,8 +1204,9 @@
       <c r="F32" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="3:6" ht="48.75" customHeight="1">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="3:7" ht="48.75" customHeight="1">
       <c r="C33" s="2">
         <v>14</v>
       </c>
@@ -1084,16 +1219,18 @@
       <c r="F33" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="3:6" ht="29.25" customHeight="1">
-      <c r="C34" s="9" t="s">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="3:7" ht="29.25" customHeight="1">
+      <c r="C34" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="3:6" ht="69" customHeight="1">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="3:7" ht="69" customHeight="1">
       <c r="C35" s="2">
         <v>1</v>
       </c>
@@ -1103,11 +1240,14 @@
       <c r="E35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="3:6" ht="90.75" customHeight="1">
+      <c r="G35" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="90.75" customHeight="1">
       <c r="C36" s="2">
         <v>2</v>
       </c>
@@ -1120,8 +1260,9 @@
       <c r="F36" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="3:6" ht="80.25" customHeight="1">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="3:7" ht="80.25" customHeight="1">
       <c r="C37" s="2">
         <v>3</v>
       </c>
@@ -1134,8 +1275,9 @@
       <c r="F37" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="38" spans="3:6" ht="70.5" customHeight="1">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="3:7" ht="70.5" customHeight="1">
       <c r="C38" s="2">
         <v>4</v>
       </c>
@@ -1148,8 +1290,9 @@
       <c r="F38" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="39" spans="3:6" ht="80.25" customHeight="1">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="3:7" ht="80.25" customHeight="1">
       <c r="C39" s="2">
         <v>5</v>
       </c>
@@ -1162,8 +1305,9 @@
       <c r="F39" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="40" spans="3:6" ht="82.5" customHeight="1">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="3:7" ht="82.5" customHeight="1">
       <c r="C40" s="2">
         <v>6</v>
       </c>
@@ -1176,8 +1320,9 @@
       <c r="F40" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="41" spans="3:6" ht="81" customHeight="1">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="3:7" ht="81" customHeight="1">
       <c r="C41" s="2">
         <v>7</v>
       </c>
@@ -1190,8 +1335,9 @@
       <c r="F41" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="3:6" ht="78.75" customHeight="1">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="3:7" ht="78.75" customHeight="1">
       <c r="C42" s="2">
         <v>8</v>
       </c>
@@ -1204,8 +1350,9 @@
       <c r="F42" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="43" spans="3:6" ht="93.75" customHeight="1">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="3:7" ht="93.75" customHeight="1">
       <c r="C43" s="2">
         <v>9</v>
       </c>
@@ -1218,8 +1365,9 @@
       <c r="F43" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="44" spans="3:6" ht="63.75" customHeight="1">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="3:7" ht="63.75" customHeight="1">
       <c r="C44" s="2">
         <v>10</v>
       </c>
@@ -1232,8 +1380,9 @@
       <c r="F44" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="45" spans="3:6" ht="53.25" customHeight="1">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="3:7" ht="53.25" customHeight="1">
       <c r="C45" s="2">
         <v>11</v>
       </c>
@@ -1246,8 +1395,9 @@
       <c r="F45" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="46" spans="3:6" ht="54.75" customHeight="1">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="3:7" ht="54.75" customHeight="1">
       <c r="C46" s="2">
         <v>12</v>
       </c>
@@ -1260,16 +1410,18 @@
       <c r="F46" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="47" spans="3:6" ht="24.75" customHeight="1">
-      <c r="C47" s="9" t="s">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="3:7" ht="24.75" customHeight="1">
+      <c r="C47" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-    </row>
-    <row r="48" spans="3:6" ht="82.5" customHeight="1">
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="3:7" ht="82.5" customHeight="1">
       <c r="C48" s="2">
         <v>1</v>
       </c>
@@ -1282,8 +1434,9 @@
       <c r="F48" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" ht="101.25" customHeight="1">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="2:7" ht="101.25" customHeight="1">
       <c r="C49" s="2">
         <v>2</v>
       </c>
@@ -1296,8 +1449,9 @@
       <c r="F49" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" ht="105.75" customHeight="1">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="2:7" ht="105.75" customHeight="1">
       <c r="C50" s="2">
         <v>3</v>
       </c>
@@ -1310,8 +1464,9 @@
       <c r="F50" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" ht="80.25" customHeight="1">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="2:7" ht="80.25" customHeight="1">
       <c r="C51" s="2">
         <v>4</v>
       </c>
@@ -1324,8 +1479,9 @@
       <c r="F51" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" ht="88.5" customHeight="1">
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="2:7" ht="88.5" customHeight="1">
       <c r="C52" s="2">
         <v>5</v>
       </c>
@@ -1338,8 +1494,9 @@
       <c r="F52" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" ht="90.75" customHeight="1">
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="2:7" ht="90.75" customHeight="1">
       <c r="C53" s="2">
         <v>6</v>
       </c>
@@ -1349,28 +1506,33 @@
       <c r="E53" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="14" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" ht="24" customHeight="1">
-      <c r="C54" s="9" t="s">
+      <c r="G53" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="24" customHeight="1">
+      <c r="C54" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="2:6" ht="24" customHeight="1">
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="18"/>
+    </row>
+    <row r="55" spans="2:7" ht="24" customHeight="1">
       <c r="B55" s="5"/>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="12"/>
-    </row>
-    <row r="56" spans="2:6" ht="102.75" customHeight="1">
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="2:7" ht="102.75" customHeight="1">
       <c r="C56" s="2">
         <v>1</v>
       </c>
@@ -1383,8 +1545,9 @@
       <c r="F56" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" ht="69" customHeight="1">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="2:7" ht="69" customHeight="1">
       <c r="C57" s="2">
         <v>2</v>
       </c>
@@ -1397,8 +1560,9 @@
       <c r="F57" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" ht="93.75" customHeight="1">
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="2:7" ht="93.75" customHeight="1">
       <c r="C58" s="2">
         <v>3</v>
       </c>
@@ -1411,8 +1575,9 @@
       <c r="F58" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" ht="78.75" customHeight="1">
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="2:7" ht="78.75" customHeight="1">
       <c r="C59" s="2">
         <v>4</v>
       </c>
@@ -1425,16 +1590,18 @@
       <c r="F59" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="60" spans="2:6" ht="25.5" customHeight="1">
-      <c r="C60" s="10" t="s">
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="2:7" ht="25.5" customHeight="1">
+      <c r="C60" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="12"/>
-    </row>
-    <row r="61" spans="2:6" ht="67.5" customHeight="1">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="19"/>
+    </row>
+    <row r="61" spans="2:7" ht="67.5" customHeight="1">
       <c r="C61" s="2">
         <v>1</v>
       </c>
@@ -1447,8 +1614,9 @@
       <c r="F61" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" ht="84" customHeight="1">
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="2:7" ht="84" customHeight="1">
       <c r="C62" s="2">
         <v>2</v>
       </c>
@@ -1461,8 +1629,9 @@
       <c r="F62" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" ht="84.75" customHeight="1">
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="2:7" ht="84.75" customHeight="1">
       <c r="C63" s="2">
         <v>3</v>
       </c>
@@ -1475,16 +1644,17 @@
       <c r="F63" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="G63" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C34:G34"/>
     <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C54:F54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
